--- a/doc/ue_slate_umg_invalidationbox.xlsx
+++ b/doc/ue_slate_umg_invalidationbox.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFB12DF8-DC11-4C41-8B9A-EF93C35EC698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5DBFA-1BD8-4209-BF40-EB1A175706ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="原理" sheetId="2" r:id="rId2"/>
     <sheet name="触发原理" sheetId="3" r:id="rId3"/>
+    <sheet name="渲染" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
   <si>
     <t>UE的Slate-UMG使用UInvalidationBox（SInvalidationPanel）机制来优化UI的执行效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +337,130 @@
   </si>
   <si>
     <t>！！！首先得FastPathProxyHandle有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawElement缓存的原理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult FSlateInvalidationRoot::PaintInvalidationRoot(const FSlateInvalidationContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>if (Context.bAllowFastPathUpdate)</t>
+  </si>
+  <si>
+    <t>Context.WindowElementList-&gt;PushCachedElementData(*CachedElementData);</t>
+  </si>
+  <si>
+    <t>将当前的CacheElementData压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果需要新Onpaint，就会渲染到CacheElementData上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Context.WindowElementList-&gt;PopCachedElementData();</t>
+  </si>
+  <si>
+    <t>出栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateDrawElement&amp; FSlateWindowElementList::AddCachedElement()</t>
+  </si>
+  <si>
+    <t>FSlateCachedElementData* CurrentCachedElementData = GetCurrentCachedElementData();</t>
+  </si>
+  <si>
+    <t>check(CurrentCachedElementData);</t>
+  </si>
+  <si>
+    <t>FWidgetDrawElementState&amp; CurrentWidgetState = WidgetDrawStack.Top();</t>
+  </si>
+  <si>
+    <t>check(!CurrentWidgetState.bIsVolatile);</t>
+  </si>
+  <si>
+    <t>if (!CurrentWidgetState.CacheHandle.IsValid())</t>
+  </si>
+  <si>
+    <t>CurrentWidgetState.CacheHandle = CurrentCachedElementData-&gt;AddCache(CurrentWidgetState.Widget);</t>
+  </si>
+  <si>
+    <t>return CurrentCachedElementData-&gt;AddCachedElement(CurrentWidgetState.CacheHandle, GetClippingManager(), CurrentWidgetState.Widget);</t>
+  </si>
+  <si>
+    <t>从缓存上分配一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateDrawElement&amp; FSlateWindowElementList::AddUninitialized()</t>
+  </si>
+  <si>
+    <t>if (bAllowCache)</t>
+  </si>
+  <si>
+    <t>// @todo get working with slate debugging</t>
+  </si>
+  <si>
+    <t>return AddCachedElement();</t>
+  </si>
+  <si>
+    <t>如果需要缓存，则从缓存上增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分配节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateDrawElement::MakeText( FSlateWindowElementList&amp; ElementList, uint32 InLayer, const FPaintGeometry&amp; PaintGeometry, const FString&amp; InText, const int32 StartIndex, const int32 EndIndex, const FSlateFontInfo&amp; InFontInfo, ESlateDrawEffect InDrawEffects, const FLinearColor&amp; InTint )</t>
+  </si>
+  <si>
+    <t>例如渲染文本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateDrawElement&amp; Element = ElementList.AddUninitialized();</t>
+  </si>
+  <si>
+    <t>分配一个节点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateWindowElementList::PushCachedElementData(FSlateCachedElementData&amp; CachedElementData)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check(&amp;CachedElementData); </t>
+  </si>
+  <si>
+    <t>const int32 Index = CachedElementDataList.AddUnique(&amp;CachedElementData);</t>
+  </si>
+  <si>
+    <t>CachedElementDataListStack.Push(Index);</t>
+  </si>
+  <si>
+    <t>！！！压栈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！存入CachedElementDataList里面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateWindowElementList::PopCachedElementData()</t>
+  </si>
+  <si>
+    <t>CachedElementDataListStack.Pop();</t>
+  </si>
+  <si>
+    <t>！！！不移除CachedElementDataList</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1251,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3688AECE-06FC-49D0-93B0-825200E6BB13}">
   <dimension ref="B3:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="O69" sqref="O69"/>
     </sheetView>
   </sheetViews>
@@ -1440,4 +1565,384 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0AE415-E5A3-48E4-B452-C10941A932B7}">
+  <dimension ref="B3:Q62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B9" s="2"/>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="2"/>
+      <c r="C10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B11" s="2"/>
+      <c r="D11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>127</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
+      <c r="C20" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="2"/>
+      <c r="D22" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="2"/>
+      <c r="D23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="2"/>
+      <c r="E24" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="2"/>
+      <c r="E25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="2"/>
+      <c r="D27" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="2"/>
+      <c r="D28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="2"/>
+      <c r="E30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="2"/>
+      <c r="E31" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="2"/>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B33" s="2"/>
+      <c r="F33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B34" s="2"/>
+      <c r="F34" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B35" s="2"/>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B37" s="2"/>
+      <c r="D37" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B38" s="2"/>
+      <c r="D38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B39" s="2"/>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B40" s="2"/>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B41" s="2"/>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B43" s="2"/>
+      <c r="E43" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B44" s="2"/>
+      <c r="E44" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B46" s="2"/>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B47" s="2"/>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B48" s="2"/>
+      <c r="F48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B49" s="2"/>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B51" s="2"/>
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B52" s="2"/>
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B54" s="2"/>
+      <c r="C54" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B55" s="2">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B56" s="2"/>
+      <c r="C56" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B57" s="2"/>
+      <c r="D57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B58" s="2"/>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B59" s="2"/>
+      <c r="D59" t="s">
+        <v>131</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B60" s="2"/>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="E61" t="s">
+        <v>132</v>
+      </c>
+      <c r="N61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/ue_slate_umg_invalidationbox.xlsx
+++ b/doc/ue_slate_umg_invalidationbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F5DBFA-1BD8-4209-BF40-EB1A175706ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F45D9-FDB4-4E50-8366-BC8252D4A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
   <si>
     <t>UE的Slate-UMG使用UInvalidationBox（SInvalidationPanel）机制来优化UI的执行效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -461,6 +461,14 @@
   </si>
   <si>
     <t>！！！不移除CachedElementDataList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原理：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将自己下面的节点OnPaint计算的DrawElement全部缓存起来，不用每次递归调用子节点的OnPaint了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -836,18 +844,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3"/>
+  <dimension ref="B3:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4" s="5"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="C5" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1571,7 +1598,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC0AE415-E5A3-48E4-B452-C10941A932B7}">
   <dimension ref="B3:Q62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>

--- a/doc/ue_slate_umg_invalidationbox.xlsx
+++ b/doc/ue_slate_umg_invalidationbox.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F3F45D9-FDB4-4E50-8366-BC8252D4A86F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89988FD6-E14B-4D3C-95AB-94C7AC3DA99A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="1" r:id="rId1"/>
     <sheet name="原理" sheetId="2" r:id="rId2"/>
     <sheet name="触发原理" sheetId="3" r:id="rId3"/>
     <sheet name="渲染" sheetId="4" r:id="rId4"/>
+    <sheet name="深坑" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="164">
   <si>
     <t>UE的Slate-UMG使用UInvalidationBox（SInvalidationPanel）机制来优化UI的执行效率</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -469,6 +470,103 @@
   </si>
   <si>
     <t>将自己下面的节点OnPaint计算的DrawElement全部缓存起来，不用每次递归调用子节点的OnPaint了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果SInvalidationPanel有嵌套关系，例如</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SInvalidationPanel_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Panel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SInvalidationPanel_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TextBlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种情况下，改变TextBlock不会影响最上面的SInvalidationPanel_1重绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅仅重绘SInvalidationPanel_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>panel2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是如果SInvalidationPanel_2最后的大小发生了改变，则就麻烦了，会重绘SInvalidationPanel_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FWidgetProxy::ProcessLayoutInvalidation(FSlateInvalidationWidgetPostHeap&amp; UpdateList, FSlateInvalidationWidgetList&amp; FastWidgetPathList, FSlateInvalidationRoot&amp; Root)</t>
+  </si>
+  <si>
+    <t>if (NewDesiredSize != CurrentDesiredSize || EnumHasAnyFlags(CurrentInvalidateReason, EInvalidateWidgetReason::Visibility | EInvalidateWidgetReason::RenderTransform))</t>
+  </si>
+  <si>
+    <t>if (ParentIndex != FSlateInvalidationWidgetIndex::Invalid)</t>
+  </si>
+  <si>
+    <t>FWidgetProxy&amp; ParentProxy = FastWidgetPathList[ParentIndex];</t>
+  </si>
+  <si>
+    <t>if (ParentIndex == FastWidgetPathList.FirstIndex())</t>
+  </si>
+  <si>
+    <t>// root of the invalidation panel just invalidate the whole thing</t>
+  </si>
+  <si>
+    <t>Root.InvalidateRootLayout(WidgetPtr);</t>
+  </si>
+  <si>
+    <t>else if (!ParentProxy.Visibility.IsCollapseDirectly())</t>
+  </si>
+  <si>
+    <t>ParentProxy.CurrentInvalidateReason |= EInvalidateWidgetReason::Layout;</t>
+  </si>
+  <si>
+    <t>#if WITH_SLATE_DEBUGGING</t>
+  </si>
+  <si>
+    <t>FSlateDebugging::BroadcastWidgetInvalidate(ParentProxy.GetWidget(), WidgetPtr, EInvalidateWidgetReason::Layout);</t>
+  </si>
+  <si>
+    <t>UE_TRACE_SLATE_WIDGET_INVALIDATED(ParentProxy.GetWidget(), WidgetPtr, EInvalidateWidgetReason::Layout);</t>
+  </si>
+  <si>
+    <t>UpdateList.PushBackOrHeapUnique(ParentProxy);</t>
+  </si>
+  <si>
+    <t>else if (TSharedPtr&lt;SWidget&gt; ParentWidget = WidgetPtr-&gt;GetParentWidget())</t>
+  </si>
+  <si>
+    <t>ParentWidget-&gt;Invalidate(EInvalidateWidgetReason::Layout);</t>
+  </si>
+  <si>
+    <t>注意这个操作，如果大小变化了，或者位置显隐变化了，就会导致ROOT重绘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！所以，Sinvalidationpanel下面一定要跟Panel，确保整体大小不会变化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！这个重绘仅仅是调用自己子控件的重绘处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果子控件是InvalidationPanel就还是走正常的处理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -1972,4 +2070,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE85ADCA-A513-4EB3-8E1B-72C0C9363F3B}">
+  <dimension ref="B5:U48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="E8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B14" s="1"/>
+      <c r="C14" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="U19" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="E24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="H28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I30" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="I31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="J32" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J33" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J37" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J39" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="J42" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="I47" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="48" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>